--- a/uploads/excel/tb_pegawai_profil.xlsx
+++ b/uploads/excel/tb_pegawai_profil.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simpeg\uploads\excel\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="84" windowWidth="19140" windowHeight="11112"/>
   </bookViews>
   <sheets>
     <sheet name="tb_pegawai_profil" sheetId="1" r:id="rId1"/>
@@ -19,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>id_profil</t>
   </si>
@@ -52,6 +47,24 @@
   </si>
   <si>
     <t>id_pendidikan</t>
+  </si>
+  <si>
+    <t>tgl_riwayat</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>user_level</t>
+  </si>
+  <si>
+    <t>0000-00-00</t>
+  </si>
+  <si>
+    <t>198105062014111003</t>
+  </si>
+  <si>
+    <t>007</t>
   </si>
 </sst>
 </file>
@@ -74,9 +87,10 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="Cambria"/>
       <family val="2"/>
       <scheme val="major"/>
     </font>
@@ -535,10 +549,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -591,9 +608,6 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -609,39 +623,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -676,7 +690,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -720,305 +734,577 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="35000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="50000">
+            <a:gs pos="40000">
               <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:N9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="1"/>
-    <col min="3" max="3" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" style="1"/>
-    <col min="5" max="5" width="10.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.44140625" customWidth="1"/>
+    <col min="13" max="13" width="33.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
-        <v>66</v>
-      </c>
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" t="s">
+        <v>14</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+      <c r="G3">
         <v>2</v>
       </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>1</v>
-      </c>
-      <c r="H2" s="1">
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>19</v>
+      </c>
+      <c r="J3">
+        <v>40</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="2">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>7</v>
+      </c>
+      <c r="E4">
+        <v>4</v>
+      </c>
+      <c r="F4">
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>6</v>
       </c>
-      <c r="I2" s="1">
+      <c r="I4">
+        <v>22</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>3</v>
+      </c>
+      <c r="L4" t="s">
+        <v>14</v>
+      </c>
+      <c r="M4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="N4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>9</v>
+      </c>
+      <c r="E5">
+        <v>5</v>
+      </c>
+      <c r="F5">
+        <v>4</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>6</v>
       </c>
-      <c r="J2" s="1">
+      <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>3</v>
+      </c>
+      <c r="L5" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="2">
+        <v>1001</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>18</v>
+      </c>
+      <c r="J6">
+        <v>47</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" t="s">
+        <v>14</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1002</v>
+      </c>
+      <c r="N6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1010</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>6</v>
+      </c>
+      <c r="I7">
+        <v>22</v>
+      </c>
+      <c r="J7">
         <v>0</v>
       </c>
-      <c r="K2" s="1">
-        <v>1</v>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M7" s="2">
+        <v>1010</v>
+      </c>
+      <c r="N7">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>67</v>
-      </c>
-      <c r="B3" s="1">
-        <v>1000</v>
-      </c>
-      <c r="C3" s="1">
-        <v>8</v>
-      </c>
-      <c r="D3" s="1">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+      <c r="F8">
+        <v>3</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
+        <v>15</v>
+      </c>
+      <c r="I8">
+        <v>31</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8" t="s">
+        <v>14</v>
+      </c>
+      <c r="M8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="E3" s="1">
-        <v>4</v>
-      </c>
-      <c r="F3" s="1">
+      <c r="B9" s="2">
+        <v>1013</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
         <v>2</v>
       </c>
-      <c r="G3" s="1">
-        <v>1</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6</v>
-      </c>
-      <c r="I3" s="1">
-        <v>22</v>
-      </c>
-      <c r="J3" s="1">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
+        <v>5</v>
+      </c>
+      <c r="I9">
+        <v>5</v>
+      </c>
+      <c r="J9">
         <v>0</v>
       </c>
-      <c r="K3" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
-        <v>68</v>
-      </c>
-      <c r="B4" s="1">
-        <v>1001</v>
-      </c>
-      <c r="C4" s="1">
-        <v>8</v>
-      </c>
-      <c r="D4" s="1">
-        <v>9</v>
-      </c>
-      <c r="E4" s="1">
-        <v>5</v>
-      </c>
-      <c r="F4" s="1">
-        <v>4</v>
-      </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>6</v>
-      </c>
-      <c r="I4" s="1">
-        <v>25</v>
-      </c>
-      <c r="J4" s="1">
-        <v>12</v>
-      </c>
-      <c r="K4" s="1">
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9" t="s">
+        <v>14</v>
+      </c>
+      <c r="M9" s="2">
+        <v>1013</v>
+      </c>
+      <c r="N9">
         <v>3</v>
       </c>
     </row>
